--- a/Dataset/Authors/ORAT_FRG.xlsx
+++ b/Dataset/Authors/ORAT_FRG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Vetus_Archivum_Oniga\Auctores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA34007-5FA3-4593-95AA-5D4C3356AC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDE898B-91FB-4613-B451-2FEF81808074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{334822D8-38A9-40AF-A1DC-F74C1CFD9EB3}"/>
   </bookViews>
@@ -153,9 +153,6 @@
     <t>chirographum</t>
   </si>
   <si>
-    <t>Incerti auctores</t>
-  </si>
-  <si>
     <t>Prose</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>triumviri</t>
+  </si>
+  <si>
+    <t>Auctores incerti</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3">
         <v>-2</v>
@@ -604,19 +604,19 @@
     </row>
     <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -691,7 +691,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="7">
         <v>1</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="7">
         <v>1</v>
